--- a/output/notes_RESF_generees/tables/Tableau_RESF_2021_1.xlsx
+++ b/output/notes_RESF_generees/tables/Tableau_RESF_2021_1.xlsx
@@ -476,7 +476,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>**PLF 2021**</t>
+          <t>PLF 2021</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -486,29 +486,29 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Solde public (en \% du PIB)</t>
+          <t>Solde public (en % du PIB)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>$-3,0$</t>
+          <t>-3,0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$-10,2$</t>
+          <t>-10,2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>$-6,7$</t>
+          <t>-6,7</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Croissance réelle du PIB (en \%)</t>
+          <t>Croissance réelle du PIB (en %)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -518,7 +518,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$-10,0$</t>
+          <t>-10,0</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -530,7 +530,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Déflateur du PIB (en \%)</t>
+          <t>Déflateur du PIB (en %)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -552,7 +552,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>**Commission européenne (prévisions de printemps 2020)**</t>
+          <t>Commission européenne (prévisions de printemps 2020)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -562,29 +562,29 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Solde public (en \% du PIB)</t>
+          <t>Solde public (en % du PIB)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>$-3,0$</t>
+          <t>-3,0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$-9,9$</t>
+          <t>-9,9</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>$-4,0$</t>
+          <t>-4,0</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Croissance réelle du PIB (en \%)</t>
+          <t>Croissance réelle du PIB (en %)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -594,7 +594,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$-8,2$</t>
+          <t>-8,2</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -606,7 +606,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Déflateur du PIB (en \%)</t>
+          <t>Déflateur du PIB (en %)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
